--- a/tests/outputs/width.xlsx
+++ b/tests/outputs/width.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -106,7 +106,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -121,7 +120,6 @@
       <bottom style="hair">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -218,58 +216,126 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -570,22 +636,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.85574677954114"/>
-    <col customWidth="1" max="2" min="2" width="5.663665235351619"/>
-    <col customWidth="1" max="3" min="3" width="13.55856920419326"/>
-    <col customWidth="1" max="4" min="4" width="21.14386909582543"/>
-    <col customWidth="1" max="5" min="5" width="21.14386909582543"/>
-    <col customWidth="1" max="6" min="6" width="13.40376716558852"/>
-    <col customWidth="1" max="7" min="7" width="23.52365372241771"/>
-    <col customWidth="1" max="8" min="8" width="13.86817328140274"/>
-    <col customWidth="1" max="9" min="9" width="20.06025482559226"/>
-    <col customWidth="1" max="10" min="10" width="15.10658959024064"/>
-    <col customWidth="1" max="11" min="11" width="16.49980793768328"/>
-    <col customWidth="1" max="12" min="12" width="10.56714285714285"/>
-    <col customWidth="1" max="13" min="13" width="77.01069340261101"/>
+    <col width="11.9000057939766" customWidth="1" min="1" max="1"/>
+    <col width="5.683335908434048" customWidth="1" min="2" max="2"/>
+    <col width="13.60959001250081" customWidth="1" min="3" max="3"/>
+    <col width="21.22501062229044" customWidth="1" min="4" max="4"/>
+    <col width="21.22501062229044" customWidth="1" min="5" max="5"/>
+    <col width="12.44158533345631" customWidth="1" min="6" max="6"/>
+    <col width="23.61424521434713" customWidth="1" min="7" max="7"/>
+    <col width="13.92042350677794" customWidth="1" min="8" max="8"/>
+    <col width="20.1370933923205" customWidth="1" min="9" max="9"/>
+    <col width="15.16375748388645" customWidth="1" min="10" max="10"/>
+    <col width="16.56250820813353" customWidth="1" min="11" max="11"/>
+    <col width="10.56714285714285" customWidth="1" min="12" max="12"/>
+    <col width="77.3136783490249" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1">
+    <row r="1" ht="15.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>aaaaaaaaaa</t>
@@ -652,7 +718,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="2">
+    <row r="2" ht="15.5" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -677,7 +743,7 @@
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="178" r="3">
+    <row r="3" ht="178" customHeight="1">
       <c r="A3" s="4" t="inlineStr"/>
       <c r="B3" s="4" t="inlineStr"/>
       <c r="C3" s="4" t="inlineStr"/>
@@ -737,7 +803,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="70.5" r="4">
+    <row r="4" ht="70.5" customHeight="1">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>Latin in size 4 with full colspan=13: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Phasellus feugiat consectetur massa, non ultrices orci accumsan eu. Aenean vitae mattis metus, at sollicitudin nunc. Sed a scelerisque est, at ultricies diam. Pellentesque nec nulla eget magna malesuada cursus. Duis vitae ullamcorper lorem, a cursus diam. Proin convallis eros quis mauris finibus pharetra. Mauris rhoncus, sem eget ullamcorper venenatis, elit turpis fringilla dolor, ut finibus augue eros eget sapien. Sed gravida in turpis et laoreet. Phasellus et posuere diam, et pulvinar tortor. Vestibulum porttitor condimentum velit, eu pretium risus varius sodales. Praesent ac sem quis ante scelerisque condimentum.</t>
@@ -756,7 +822,7 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="138" r="5">
+    <row r="5" ht="138" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>Here is a whole bunch of text in font size=5 to see how we handle wrapping with colspan=5. Hopefully you can see all the text and not just part of it!</t>
@@ -775,7 +841,7 @@
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="76.5" r="6">
+    <row r="6" ht="76.5" customHeight="1">
       <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Here is some more text in font size=6 to see how we handle wrapping with colspan=5 and rowspan=2. Hopefully you can see all the text and not just part of it!</t>
@@ -798,7 +864,7 @@
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="76.5" r="7">
+    <row r="7" ht="76.5" customHeight="1">
       <c r="A7" s="17" t="n"/>
       <c r="B7" s="18" t="n"/>
       <c r="C7" s="18" t="n"/>
@@ -831,6 +897,6 @@
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="G7:M7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>